--- a/U-Match Proe db.xlsx
+++ b/U-Match Proe db.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10935" activeTab="2"/>
+    <workbookView windowWidth="19395" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
     <sheet name="condition" sheetId="2" r:id="rId2"/>
-    <sheet name="part-row" sheetId="3" r:id="rId3"/>
+    <sheet name="options" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
   <si>
     <t>Model</t>
   </si>
@@ -297,6 +297,9 @@
     <t>execute</t>
   </si>
   <si>
+    <t>model</t>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
@@ -349,6 +352,9 @@
   </si>
   <si>
     <t>[大,中,小]</t>
+  </si>
+  <si>
+    <t>[大,中]</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -377,6 +383,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -392,53 +403,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -448,6 +412,36 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,14 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +478,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -498,26 +500,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -526,9 +513,28 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -552,13 +558,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,73 +696,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,85 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,65 +746,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,6 +781,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -837,51 +819,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,107 +899,104 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1002,10 +1008,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1367,7 +1373,7 @@
   <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,7 +1447,7 @@
       <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="T1" t="s">
@@ -1843,7 +1849,7 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C13">
@@ -1866,7 +1872,7 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C14">
@@ -1889,7 +1895,7 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C15">
@@ -1912,7 +1918,7 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C16">
@@ -1938,7 +1944,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C17">
@@ -1964,7 +1970,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C18">
@@ -1990,7 +1996,7 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C19">
@@ -2013,10 +2019,10 @@
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C20">
@@ -2057,10 +2063,10 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C21">
@@ -2101,10 +2107,10 @@
       </c>
     </row>
     <row r="22" spans="1:33">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C22">
@@ -2145,10 +2151,10 @@
       </c>
     </row>
     <row r="23" spans="1:33">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C23">
@@ -2189,10 +2195,10 @@
       </c>
     </row>
     <row r="24" spans="1:33">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C24">
@@ -2233,10 +2239,10 @@
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C25">
@@ -2286,189 +2292,219 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
+    <col min="1" max="2" width="8.375" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="13.25" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:6">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" t="s">
-        <v>92</v>
+      <c r="F10" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2480,28 +2516,45 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="1" spans="1:3">
+      <c r="A1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/U-Match Proe db.xlsx
+++ b/U-Match Proe db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19395" windowHeight="13275" activeTab="1"/>
+    <workbookView windowWidth="14445" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -267,21 +267,21 @@
     </r>
   </si>
   <si>
+    <t>换热器</t>
+  </si>
+  <si>
+    <t>aaaaa</t>
+  </si>
+  <si>
+    <t>开窗片</t>
+  </si>
+  <si>
+    <t>bbbbb</t>
+  </si>
+  <si>
     <t>组合柜</t>
   </si>
   <si>
-    <t>换热器</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
-  </si>
-  <si>
-    <t>开窗片</t>
-  </si>
-  <si>
-    <t>bbbbb</t>
-  </si>
-  <si>
     <t>ccccc</t>
   </si>
   <si>
@@ -345,7 +345,7 @@
     <t>[18,19,23]</t>
   </si>
   <si>
-    <t>[20,21,]</t>
+    <t>[20,21]</t>
   </si>
   <si>
     <t>[22]</t>
@@ -362,10 +362,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -380,18 +380,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,24 +405,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,6 +429,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,7 +482,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,63 +511,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -552,19 +552,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,163 +732,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,13 +770,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,26 +824,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -828,175 +843,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,13 +1005,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1370,10 +1370,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG25"/>
+  <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1447,7 +1447,7 @@
       <c r="R1" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T1" t="s">
@@ -1849,7 +1849,7 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C13">
@@ -1872,7 +1872,7 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C14">
@@ -1895,7 +1895,7 @@
       <c r="A15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C15">
@@ -1918,14 +1918,14 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C16">
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T16" s="4" t="s">
         <v>61</v>
@@ -1944,7 +1944,7 @@
       <c r="A17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C17">
@@ -1970,7 +1970,7 @@
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C18">
@@ -1996,7 +1996,7 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C19">
@@ -2019,11 +2019,11 @@
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C20">
         <v>18</v>
@@ -2032,7 +2032,7 @@
         <v>2</v>
       </c>
       <c r="X20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Y20">
         <v>5</v>
@@ -2044,7 +2044,7 @@
         <v>12</v>
       </c>
       <c r="AB20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC20">
         <v>1.4</v>
@@ -2063,11 +2063,11 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C21">
         <v>19</v>
@@ -2076,7 +2076,7 @@
         <v>2</v>
       </c>
       <c r="X21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y21">
         <v>5</v>
@@ -2088,7 +2088,7 @@
         <v>24</v>
       </c>
       <c r="AB21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC21">
         <v>1.4</v>
@@ -2106,179 +2106,275 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>24</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>3500</v>
+      </c>
+      <c r="G22">
+        <v>6000</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+      <c r="G23">
+        <v>12500</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>39</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24">
+        <v>8500</v>
+      </c>
+      <c r="G24">
+        <v>17500</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" t="s">
+        <v>42</v>
+      </c>
+      <c r="J24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="A25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22">
+      <c r="C25">
         <v>20</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="X22" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22">
-        <v>5</v>
-      </c>
-      <c r="Z22">
-        <v>3</v>
-      </c>
-      <c r="AA22">
-        <v>24</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC22">
-        <v>1.4</v>
-      </c>
-      <c r="AD22">
-        <v>3</v>
-      </c>
-      <c r="AE22">
-        <v>3</v>
-      </c>
-      <c r="AF22">
-        <v>8800</v>
-      </c>
-      <c r="AG22">
-        <v>8800</v>
-      </c>
-    </row>
-    <row r="23" spans="1:33">
-      <c r="A23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="X23" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y23">
-        <v>5</v>
-      </c>
-      <c r="Z23">
-        <v>4</v>
-      </c>
-      <c r="AA23">
-        <v>32</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC23">
-        <v>1.4</v>
-      </c>
-      <c r="AD23">
-        <v>4</v>
-      </c>
-      <c r="AE23">
-        <v>4</v>
-      </c>
-      <c r="AF23">
-        <v>12500</v>
-      </c>
-      <c r="AG23">
-        <v>12500</v>
-      </c>
-    </row>
-    <row r="24" spans="1:33">
-      <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="X24" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y24">
-        <v>7</v>
-      </c>
-      <c r="Z24">
-        <v>3</v>
-      </c>
-      <c r="AA24">
-        <v>24</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC24">
-        <v>1.6</v>
-      </c>
-      <c r="AD24">
-        <v>5</v>
-      </c>
-      <c r="AE24">
-        <v>5</v>
-      </c>
-      <c r="AF24">
-        <v>14200</v>
-      </c>
-      <c r="AG24">
-        <v>14200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="A25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25">
-        <v>23</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="X25" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>24</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC25">
+        <v>1.4</v>
+      </c>
+      <c r="AD25">
+        <v>3</v>
+      </c>
+      <c r="AE25">
+        <v>3</v>
+      </c>
+      <c r="AF25">
+        <v>8800</v>
+      </c>
+      <c r="AG25">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26">
+        <v>21</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="X26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y26">
+        <v>5</v>
+      </c>
+      <c r="Z26">
+        <v>4</v>
+      </c>
+      <c r="AA26">
+        <v>32</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC26">
+        <v>1.4</v>
+      </c>
+      <c r="AD26">
+        <v>4</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26">
+        <v>12500</v>
+      </c>
+      <c r="AG26">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33">
+      <c r="A27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27">
+        <v>22</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="X27" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>24</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC27">
+        <v>1.6</v>
+      </c>
+      <c r="AD27">
+        <v>5</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>14200</v>
+      </c>
+      <c r="AG27">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33">
+      <c r="A28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="X28" t="s">
         <v>74</v>
       </c>
-      <c r="Y25">
+      <c r="Y28">
         <v>7</v>
       </c>
-      <c r="Z25">
+      <c r="Z28">
         <v>4</v>
       </c>
-      <c r="AA25">
-        <v>32</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC25">
+      <c r="AA28">
+        <v>32</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC28">
         <v>1.6</v>
       </c>
-      <c r="AD25">
+      <c r="AD28">
         <v>6</v>
       </c>
-      <c r="AE25">
+      <c r="AE28">
         <v>6</v>
       </c>
-      <c r="AF25">
+      <c r="AF28">
         <v>17600</v>
       </c>
-      <c r="AG25">
+      <c r="AG28">
         <v>17600</v>
       </c>
     </row>
@@ -2294,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2331,10 +2427,10 @@
       <c r="A2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
@@ -2351,10 +2447,10 @@
       <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
@@ -2371,10 +2467,10 @@
       <c r="A4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
@@ -2391,16 +2487,16 @@
       <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F5" t="s">
@@ -2411,16 +2507,16 @@
       <c r="A6" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F6" t="s">
@@ -2431,16 +2527,16 @@
       <c r="A7" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F7" t="s">
@@ -2451,17 +2547,17 @@
       <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>67</v>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -2471,17 +2567,17 @@
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>67</v>
+      <c r="E9" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>92</v>
@@ -2491,17 +2587,17 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>67</v>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F10" t="s">
         <v>93</v>
@@ -2519,7 +2615,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -2547,13 +2643,13 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
         <v>95</v>
       </c>
     </row>

--- a/U-Match Proe db.xlsx
+++ b/U-Match Proe db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14445" windowHeight="7680"/>
+    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
   <si>
     <t>Model</t>
   </si>
@@ -351,10 +351,31 @@
     <t>[22]</t>
   </si>
   <si>
-    <t>[大,中,小]</t>
-  </si>
-  <si>
-    <t>[大,中]</t>
+    <t>能力</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>[0,1]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[大壳体,中壳体,小壳体]</t>
+  </si>
+  <si>
+    <t>[大壳体,中壳体]</t>
+  </si>
+  <si>
+    <t>[3000,5500,7000,10000]</t>
+  </si>
+  <si>
+    <t>[12000,15000,17000,20000]</t>
   </si>
 </sst>
 </file>
@@ -390,6 +411,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -405,14 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -421,7 +441,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,16 +454,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,9 +472,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -476,13 +489,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -527,12 +533,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -552,187 +573,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,17 +776,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,26 +815,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -834,15 +864,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -851,152 +872,152 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1008,10 +1029,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1372,8 +1393,8 @@
   <sheetPr/>
   <dimension ref="A1:AG28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2019,7 +2040,7 @@
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="A20" s="3" t="s">
+      <c r="A20" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2063,7 +2084,7 @@
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="A21" s="3" t="s">
+      <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2388,10 +2409,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2430,7 +2451,7 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
@@ -2450,7 +2471,7 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
@@ -2470,7 +2491,7 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
@@ -2490,7 +2511,7 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
@@ -2510,7 +2531,7 @@
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
@@ -2530,7 +2551,7 @@
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
@@ -2550,7 +2571,7 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
@@ -2570,7 +2591,7 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
@@ -2590,7 +2611,7 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D10" t="s">
@@ -2601,6 +2622,106 @@
       </c>
       <c r="F10" t="s">
         <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>3000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>5500</v>
+      </c>
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>10000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>12000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2612,13 +2733,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" customFormat="1" spans="1:3">
       <c r="A1" t="s">
@@ -2639,7 +2760,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2650,7 +2771,29 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/U-Match Proe db.xlsx
+++ b/U-Match Proe db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="2"/>
+    <workbookView windowWidth="19395" windowHeight="13275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="part" sheetId="1" r:id="rId1"/>
@@ -312,7 +312,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>大</t>
+    <t>大壳体</t>
   </si>
   <si>
     <t>enable</t>
@@ -321,13 +321,13 @@
     <t>[3,4]</t>
   </si>
   <si>
-    <t>中</t>
+    <t>中壳体</t>
   </si>
   <si>
     <t>[5,6]</t>
   </si>
   <si>
-    <t>小</t>
+    <t>小壳体</t>
   </si>
   <si>
     <t>[7,8,9]</t>
@@ -383,12 +383,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,10 +397,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,8 +424,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,12 +470,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -447,23 +484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -472,9 +494,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,8 +516,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,55 +551,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -573,187 +566,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,6 +757,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -785,17 +793,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,21 +844,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -853,183 +857,169 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1948,7 +1938,7 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="T16" s="3" t="s">
         <v>61</v>
       </c>
       <c r="U16" t="s">
@@ -1974,7 +1964,7 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="U17" t="s">
@@ -2000,7 +1990,7 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="4" t="s">
         <v>64</v>
       </c>
       <c r="U18" t="s">
@@ -2026,7 +2016,7 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="4" t="s">
         <v>65</v>
       </c>
       <c r="U19" t="s">
@@ -2411,8 +2401,8 @@
   <sheetPr/>
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2451,7 +2441,7 @@
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D2" t="s">
@@ -2471,7 +2461,7 @@
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D3" t="s">
@@ -2491,7 +2481,7 @@
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D4" t="s">
@@ -2511,7 +2501,7 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
@@ -2531,7 +2521,7 @@
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D6" t="s">
@@ -2551,7 +2541,7 @@
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D7" t="s">
@@ -2571,7 +2561,7 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D8" t="s">
@@ -2591,7 +2581,7 @@
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D9" t="s">
@@ -2611,7 +2601,7 @@
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D10" t="s">
@@ -2637,7 +2627,7 @@
       <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>33</v>
       </c>
       <c r="F11" t="s">
@@ -2657,7 +2647,7 @@
       <c r="D12" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
       <c r="F12" t="s">
@@ -2677,7 +2667,7 @@
       <c r="D13" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
@@ -2697,7 +2687,7 @@
       <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>33</v>
       </c>
       <c r="F14" t="s">
@@ -2717,7 +2707,7 @@
       <c r="D15" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>33</v>
       </c>
       <c r="F15" t="s">
@@ -2735,7 +2725,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -2778,7 +2768,7 @@
       <c r="A4" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">

--- a/U-Match Proe db.xlsx
+++ b/U-Match Proe db.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>Model</t>
   </si>
@@ -333,6 +333,9 @@
     <t>[7,8,9]</t>
   </si>
   <si>
+    <t>[14,15,16]</t>
+  </si>
+  <si>
     <t>[11,12,13]</t>
   </si>
   <si>
@@ -383,12 +386,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,17 +400,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -424,24 +421,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -463,7 +452,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +483,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,6 +509,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -508,47 +551,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -566,169 +576,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,12 +757,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,6 +767,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -779,31 +852,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,204 +867,165 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1023,6 +1033,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1384,7 +1397,7 @@
   <dimension ref="A1:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1938,7 +1951,7 @@
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="T16" s="4" t="s">
         <v>61</v>
       </c>
       <c r="U16" t="s">
@@ -1964,7 +1977,7 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="T17" s="5" t="s">
         <v>63</v>
       </c>
       <c r="U17" t="s">
@@ -1990,7 +2003,7 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="T18" s="4" t="s">
+      <c r="T18" s="5" t="s">
         <v>64</v>
       </c>
       <c r="U18" t="s">
@@ -2016,7 +2029,7 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="T19" s="4" t="s">
+      <c r="T19" s="5" t="s">
         <v>65</v>
       </c>
       <c r="U19" t="s">
@@ -2399,10 +2412,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2501,14 +2514,14 @@
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D5" t="s">
         <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
@@ -2522,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
         <v>82</v>
@@ -2542,7 +2555,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>82</v>
@@ -2562,13 +2575,13 @@
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
         <v>82</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F8" t="s">
         <v>91</v>
@@ -2582,7 +2595,7 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>82</v>
@@ -2602,7 +2615,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>82</v>
@@ -2616,33 +2629,33 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11">
-        <v>3000</v>
+      <c r="C11" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="D11" t="s">
         <v>82</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12">
-        <v>5500</v>
+        <v>3000</v>
       </c>
       <c r="D12" t="s">
         <v>82</v>
@@ -2656,13 +2669,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>32</v>
       </c>
       <c r="C13">
-        <v>7000</v>
+        <v>5500</v>
       </c>
       <c r="D13" t="s">
         <v>82</v>
@@ -2676,13 +2689,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="D14" t="s">
         <v>82</v>
@@ -2696,13 +2709,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>70</v>
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>12000</v>
+        <v>10000</v>
       </c>
       <c r="D15" t="s">
         <v>82</v>
@@ -2711,7 +2724,27 @@
         <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>12000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2750,7 +2783,7 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2761,29 +2794,29 @@
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
